--- a/Comparativa metodos clustering.xlsx
+++ b/Comparativa metodos clustering.xlsx
@@ -9,12 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7032"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
     <sheet name="Con Horas" sheetId="3" r:id="rId2"/>
-    <sheet name="Hoja2" sheetId="2" r:id="rId3"/>
+    <sheet name="Hoja3" sheetId="4" r:id="rId3"/>
+    <sheet name="Hoja2" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <fileRecoveryPr repairLoad="1"/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="14">
   <si>
     <t>K-means</t>
   </si>
@@ -78,7 +79,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -94,8 +95,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -114,8 +130,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="19">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -365,11 +393,82 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -410,6 +509,52 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -467,6 +612,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -948,6 +1094,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1170,19 +1317,19 @@
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.7288</c:v>
+                  <c:v>0.72789999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.67500000000000004</c:v>
+                  <c:v>0.67279999999999995</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.72970000000000002</c:v>
+                  <c:v>0.72750000000000004</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.58730000000000004</c:v>
+                  <c:v>0.57579999999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.60329999999999995</c:v>
+                  <c:v>0.59199999999999997</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0.61729999999999996</c:v>
@@ -1441,6 +1588,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1565,7 +1713,7 @@
                   <c:v>0.67379999999999995</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.6482</c:v>
+                  <c:v>0.60270000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1651,22 +1799,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.74450000000000005</c:v>
+                  <c:v>0.67010000000000003</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.68359999999999999</c:v>
+                  <c:v>0.58389999999999997</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="0.0000">
-                  <c:v>0.47099999999999997</c:v>
+                  <c:v>0.62770000000000004</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.45329999999999998</c:v>
+                  <c:v>0.66059999999999997</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.47470000000000001</c:v>
+                  <c:v>0.43669999999999998</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.49080000000000001</c:v>
+                  <c:v>0.42559999999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1922,6 +2070,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2132,22 +2281,22 @@
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.62729999999999997</c:v>
+                  <c:v>0.53069999999999995</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.49680000000000002</c:v>
+                  <c:v>0.36759999999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.48299999999999998</c:v>
+                  <c:v>0.36230000000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.53939999999999999</c:v>
+                  <c:v>0.31840000000000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.52390000000000003</c:v>
+                  <c:v>0.37459999999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.52869999999999995</c:v>
+                  <c:v>0.37880000000000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2403,6 +2552,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2884,6 +3034,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3365,6 +3516,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3858,6 +4010,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4339,6 +4492,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4820,6 +4974,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5301,6 +5456,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5782,6 +5938,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -13310,8 +13467,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M22"/>
   <sheetViews>
-    <sheetView showWhiteSpace="0" view="pageLayout" topLeftCell="A37" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="M52" sqref="M52"/>
+    <sheetView tabSelected="1" showWhiteSpace="0" view="pageLayout" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14003,8 +14160,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M22"/>
   <sheetViews>
-    <sheetView tabSelected="1" showWhiteSpace="0" view="pageLayout" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView showWhiteSpace="0" view="pageLayout" topLeftCell="A64" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="M68" sqref="M68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14553,19 +14710,19 @@
         <v>1</v>
       </c>
       <c r="C18" s="8">
-        <v>0.7288</v>
+        <v>0.72789999999999999</v>
       </c>
       <c r="D18" s="8">
-        <v>0.67500000000000004</v>
+        <v>0.67279999999999995</v>
       </c>
       <c r="E18" s="13">
-        <v>0.72970000000000002</v>
+        <v>0.72750000000000004</v>
       </c>
       <c r="F18" s="8">
-        <v>0.58730000000000004</v>
+        <v>0.57579999999999998</v>
       </c>
       <c r="G18" s="8">
-        <v>0.60329999999999995</v>
+        <v>0.59199999999999997</v>
       </c>
       <c r="H18" s="8">
         <v>0.61729999999999996</v>
@@ -14594,7 +14751,7 @@
         <v>0.67379999999999995</v>
       </c>
       <c r="H19" s="6">
-        <v>0.6482</v>
+        <v>0.60270000000000001</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -14603,22 +14760,22 @@
         <v>1</v>
       </c>
       <c r="C20" s="7">
-        <v>0.74450000000000005</v>
+        <v>0.67010000000000003</v>
       </c>
       <c r="D20" s="7">
-        <v>0.68359999999999999</v>
+        <v>0.58389999999999997</v>
       </c>
       <c r="E20" s="8">
-        <v>0.47099999999999997</v>
+        <v>0.62770000000000004</v>
       </c>
       <c r="F20" s="7">
-        <v>0.45329999999999998</v>
+        <v>0.66059999999999997</v>
       </c>
       <c r="G20" s="7">
-        <v>0.47470000000000001</v>
+        <v>0.43669999999999998</v>
       </c>
       <c r="H20" s="7">
-        <v>0.49080000000000001</v>
+        <v>0.42559999999999998</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -14653,22 +14810,22 @@
         <v>1</v>
       </c>
       <c r="C22" s="11">
-        <v>0.62729999999999997</v>
+        <v>0.53069999999999995</v>
       </c>
       <c r="D22" s="11">
-        <v>0.49680000000000002</v>
+        <v>0.36759999999999998</v>
       </c>
       <c r="E22" s="11">
-        <v>0.48299999999999998</v>
+        <v>0.36230000000000001</v>
       </c>
       <c r="F22" s="11">
-        <v>0.53939999999999999</v>
+        <v>0.31840000000000002</v>
       </c>
       <c r="G22" s="11">
-        <v>0.52390000000000003</v>
+        <v>0.37459999999999999</v>
       </c>
       <c r="H22" s="11">
-        <v>0.52869999999999995</v>
+        <v>0.37880000000000003</v>
       </c>
     </row>
   </sheetData>
@@ -14694,14 +14851,703 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="D4:K17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="4" max="4" width="25.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="4:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="5" spans="4:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="G5" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="H5" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="I5" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="J5" s="41" t="s">
+        <v>12</v>
+      </c>
+      <c r="K5" s="41" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D6" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="F6" s="28">
+        <v>0.92749999999999999</v>
+      </c>
+      <c r="G6" s="29">
+        <v>0.93669999999999998</v>
+      </c>
+      <c r="H6" s="30">
+        <v>0.93569999999999998</v>
+      </c>
+      <c r="I6" s="30">
+        <v>0.9173</v>
+      </c>
+      <c r="J6" s="30">
+        <v>0.55120000000000002</v>
+      </c>
+      <c r="K6" s="31">
+        <v>0.56079999999999997</v>
+      </c>
+    </row>
+    <row r="7" spans="4:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D7" s="38"/>
+      <c r="E7" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="F7" s="32">
+        <v>0.92789999999999995</v>
+      </c>
+      <c r="G7" s="33">
+        <v>0.93640000000000001</v>
+      </c>
+      <c r="H7" s="33">
+        <v>0.91390000000000005</v>
+      </c>
+      <c r="I7" s="33">
+        <v>0.54059999999999997</v>
+      </c>
+      <c r="J7" s="34">
+        <v>0.55549999999999999</v>
+      </c>
+      <c r="K7" s="35">
+        <v>0.48949999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D8" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="F8" s="36">
+        <v>0.94379999999999997</v>
+      </c>
+      <c r="G8" s="30">
+        <v>0.91869999999999996</v>
+      </c>
+      <c r="H8" s="30">
+        <v>0.90969999999999995</v>
+      </c>
+      <c r="I8" s="30">
+        <v>0.90169999999999995</v>
+      </c>
+      <c r="J8" s="30">
+        <v>0.8871</v>
+      </c>
+      <c r="K8" s="31">
+        <v>0.87670000000000003</v>
+      </c>
+    </row>
+    <row r="9" spans="4:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D9" s="38"/>
+      <c r="E9" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="F9" s="32">
+        <v>0.94079999999999997</v>
+      </c>
+      <c r="G9" s="33">
+        <v>0.90680000000000005</v>
+      </c>
+      <c r="H9" s="33">
+        <v>0.51459999999999995</v>
+      </c>
+      <c r="I9" s="33">
+        <v>0.52100000000000002</v>
+      </c>
+      <c r="J9" s="33">
+        <v>0.52429999999999999</v>
+      </c>
+      <c r="K9" s="35">
+        <v>0.53029999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D10" s="37" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="F10" s="36">
+        <v>0.80840000000000001</v>
+      </c>
+      <c r="G10" s="30">
+        <v>0.79620000000000002</v>
+      </c>
+      <c r="H10" s="30">
+        <v>0.76749999999999996</v>
+      </c>
+      <c r="I10" s="30">
+        <v>0.70369999999999999</v>
+      </c>
+      <c r="J10" s="30">
+        <v>0.70099999999999996</v>
+      </c>
+      <c r="K10" s="31">
+        <v>0.63700000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="4:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D11" s="38"/>
+      <c r="E11" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="F11" s="32">
+        <v>0.80620000000000003</v>
+      </c>
+      <c r="G11" s="33">
+        <v>0.79269999999999996</v>
+      </c>
+      <c r="H11" s="33">
+        <v>0.65359999999999996</v>
+      </c>
+      <c r="I11" s="33">
+        <v>0.6764</v>
+      </c>
+      <c r="J11" s="33">
+        <v>0.67200000000000004</v>
+      </c>
+      <c r="K11" s="35">
+        <v>0.62539999999999996</v>
+      </c>
+    </row>
+    <row r="12" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D12" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="F12" s="28">
+        <v>0.73460000000000003</v>
+      </c>
+      <c r="G12" s="30">
+        <v>0.73619999999999997</v>
+      </c>
+      <c r="H12" s="30">
+        <v>0.72409999999999997</v>
+      </c>
+      <c r="I12" s="29">
+        <v>0.74560000000000004</v>
+      </c>
+      <c r="J12" s="30">
+        <v>0.70840000000000003</v>
+      </c>
+      <c r="K12" s="31">
+        <v>0.60780000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="4:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D13" s="38"/>
+      <c r="E13" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="F13" s="32">
+        <v>0.72789999999999999</v>
+      </c>
+      <c r="G13" s="33">
+        <v>0.67279999999999995</v>
+      </c>
+      <c r="H13" s="33">
+        <v>0.72750000000000004</v>
+      </c>
+      <c r="I13" s="33">
+        <v>0.57579999999999998</v>
+      </c>
+      <c r="J13" s="33">
+        <v>0.59199999999999997</v>
+      </c>
+      <c r="K13" s="35">
+        <v>0.61729999999999996</v>
+      </c>
+    </row>
+    <row r="14" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D14" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="F14" s="28">
+        <v>0.67120000000000002</v>
+      </c>
+      <c r="G14" s="30">
+        <v>0.70109999999999995</v>
+      </c>
+      <c r="H14" s="29">
+        <v>0.70140000000000002</v>
+      </c>
+      <c r="I14" s="30">
+        <v>0.66139999999999999</v>
+      </c>
+      <c r="J14" s="30">
+        <v>0.67379999999999995</v>
+      </c>
+      <c r="K14" s="31">
+        <v>0.60270000000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="4:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D15" s="38"/>
+      <c r="E15" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="F15" s="32">
+        <v>0.67010000000000003</v>
+      </c>
+      <c r="G15" s="33">
+        <v>0.58389999999999997</v>
+      </c>
+      <c r="H15" s="33">
+        <v>0.62770000000000004</v>
+      </c>
+      <c r="I15" s="33">
+        <v>0.66059999999999997</v>
+      </c>
+      <c r="J15" s="33">
+        <v>0.43669999999999998</v>
+      </c>
+      <c r="K15" s="35">
+        <v>0.42559999999999998</v>
+      </c>
+    </row>
+    <row r="16" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D16" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="F16" s="36">
+        <v>0.62839999999999996</v>
+      </c>
+      <c r="G16" s="30">
+        <v>0.51759999999999995</v>
+      </c>
+      <c r="H16" s="30">
+        <v>0.57650000000000001</v>
+      </c>
+      <c r="I16" s="30">
+        <v>0.54139999999999999</v>
+      </c>
+      <c r="J16" s="30">
+        <v>0.52680000000000005</v>
+      </c>
+      <c r="K16" s="31">
+        <v>0.52510000000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="4:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D17" s="38"/>
+      <c r="E17" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="F17" s="32">
+        <v>0.53069999999999995</v>
+      </c>
+      <c r="G17" s="33">
+        <v>0.36759999999999998</v>
+      </c>
+      <c r="H17" s="33">
+        <v>0.36230000000000001</v>
+      </c>
+      <c r="I17" s="33">
+        <v>0.31840000000000002</v>
+      </c>
+      <c r="J17" s="33">
+        <v>0.37459999999999999</v>
+      </c>
+      <c r="K17" s="35">
+        <v>0.37880000000000003</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="D16:D17"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K15"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection sqref="A1:H15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="8" width="7" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="27"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="41" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="41" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="28">
+        <v>0.92749999999999999</v>
+      </c>
+      <c r="D3" s="29">
+        <v>0.93669999999999998</v>
+      </c>
+      <c r="E3" s="30">
+        <v>0.93569999999999998</v>
+      </c>
+      <c r="F3" s="30">
+        <v>0.9173</v>
+      </c>
+      <c r="G3" s="30">
+        <v>0.55120000000000002</v>
+      </c>
+      <c r="H3" s="31">
+        <v>0.56079999999999997</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="38"/>
+      <c r="B4" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="32">
+        <v>0.92789999999999995</v>
+      </c>
+      <c r="D4" s="33">
+        <v>0.93640000000000001</v>
+      </c>
+      <c r="E4" s="33">
+        <v>0.91390000000000005</v>
+      </c>
+      <c r="F4" s="33">
+        <v>0.54059999999999997</v>
+      </c>
+      <c r="G4" s="34">
+        <v>0.55549999999999999</v>
+      </c>
+      <c r="H4" s="35">
+        <v>0.48949999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="36">
+        <v>0.94379999999999997</v>
+      </c>
+      <c r="D5" s="30">
+        <v>0.91869999999999996</v>
+      </c>
+      <c r="E5" s="30">
+        <v>0.90969999999999995</v>
+      </c>
+      <c r="F5" s="30">
+        <v>0.90169999999999995</v>
+      </c>
+      <c r="G5" s="30">
+        <v>0.8871</v>
+      </c>
+      <c r="H5" s="31">
+        <v>0.87670000000000003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="38"/>
+      <c r="B6" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="32">
+        <v>0.94079999999999997</v>
+      </c>
+      <c r="D6" s="33">
+        <v>0.90680000000000005</v>
+      </c>
+      <c r="E6" s="33">
+        <v>0.51459999999999995</v>
+      </c>
+      <c r="F6" s="33">
+        <v>0.52100000000000002</v>
+      </c>
+      <c r="G6" s="33">
+        <v>0.52429999999999999</v>
+      </c>
+      <c r="H6" s="35">
+        <v>0.53029999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" s="37" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="36">
+        <v>0.80840000000000001</v>
+      </c>
+      <c r="D7" s="30">
+        <v>0.79620000000000002</v>
+      </c>
+      <c r="E7" s="30">
+        <v>0.76749999999999996</v>
+      </c>
+      <c r="F7" s="30">
+        <v>0.70369999999999999</v>
+      </c>
+      <c r="G7" s="30">
+        <v>0.70099999999999996</v>
+      </c>
+      <c r="H7" s="31">
+        <v>0.63700000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="38"/>
+      <c r="B8" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="32">
+        <v>0.80620000000000003</v>
+      </c>
+      <c r="D8" s="33">
+        <v>0.79269999999999996</v>
+      </c>
+      <c r="E8" s="33">
+        <v>0.65359999999999996</v>
+      </c>
+      <c r="F8" s="33">
+        <v>0.6764</v>
+      </c>
+      <c r="G8" s="33">
+        <v>0.67200000000000004</v>
+      </c>
+      <c r="H8" s="35">
+        <v>0.62539999999999996</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="28">
+        <v>0.73460000000000003</v>
+      </c>
+      <c r="D9" s="30">
+        <v>0.73619999999999997</v>
+      </c>
+      <c r="E9" s="30">
+        <v>0.72409999999999997</v>
+      </c>
+      <c r="F9" s="29">
+        <v>0.74560000000000004</v>
+      </c>
+      <c r="G9" s="30">
+        <v>0.70840000000000003</v>
+      </c>
+      <c r="H9" s="31">
+        <v>0.60780000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="38"/>
+      <c r="B10" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="32">
+        <v>0.72789999999999999</v>
+      </c>
+      <c r="D10" s="33">
+        <v>0.67279999999999995</v>
+      </c>
+      <c r="E10" s="33">
+        <v>0.72750000000000004</v>
+      </c>
+      <c r="F10" s="33">
+        <v>0.57579999999999998</v>
+      </c>
+      <c r="G10" s="33">
+        <v>0.59199999999999997</v>
+      </c>
+      <c r="H10" s="35">
+        <v>0.61729999999999996</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" s="28">
+        <v>0.67120000000000002</v>
+      </c>
+      <c r="D11" s="30">
+        <v>0.70109999999999995</v>
+      </c>
+      <c r="E11" s="29">
+        <v>0.70140000000000002</v>
+      </c>
+      <c r="F11" s="30">
+        <v>0.66139999999999999</v>
+      </c>
+      <c r="G11" s="30">
+        <v>0.67379999999999995</v>
+      </c>
+      <c r="H11" s="31">
+        <v>0.60270000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="38"/>
+      <c r="B12" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="32">
+        <v>0.67010000000000003</v>
+      </c>
+      <c r="D12" s="33">
+        <v>0.58389999999999997</v>
+      </c>
+      <c r="E12" s="33">
+        <v>0.62770000000000004</v>
+      </c>
+      <c r="F12" s="33">
+        <v>0.66059999999999997</v>
+      </c>
+      <c r="G12" s="33">
+        <v>0.43669999999999998</v>
+      </c>
+      <c r="H12" s="35">
+        <v>0.42559999999999998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="36">
+        <v>0.62839999999999996</v>
+      </c>
+      <c r="D13" s="30">
+        <v>0.51759999999999995</v>
+      </c>
+      <c r="E13" s="30">
+        <v>0.57650000000000001</v>
+      </c>
+      <c r="F13" s="30">
+        <v>0.54139999999999999</v>
+      </c>
+      <c r="G13" s="30">
+        <v>0.52680000000000005</v>
+      </c>
+      <c r="H13" s="31">
+        <v>0.52510000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="38"/>
+      <c r="B14" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="32">
+        <v>0.53069999999999995</v>
+      </c>
+      <c r="D14" s="33">
+        <v>0.36759999999999998</v>
+      </c>
+      <c r="E14" s="33">
+        <v>0.36230000000000001</v>
+      </c>
+      <c r="F14" s="33">
+        <v>0.31840000000000002</v>
+      </c>
+      <c r="G14" s="33">
+        <v>0.37459999999999999</v>
+      </c>
+      <c r="H14" s="35">
+        <v>0.37880000000000003</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K15" s="26"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A13:A14"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
